--- a/data/trans_dic/P25A_10_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_10_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por varices en las piernas</t>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,95</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,19</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,04</t>
+          <t>0,48; 5,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,21</t>
+          <t>1,35; 6,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,22</t>
+          <t>0,41; 3,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,21</t>
+          <t>0,47; 4,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,71</t>
+          <t>5,1; 15,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,34</t>
+          <t>1,13; 4,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,03</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 8,65</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 5,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,94</t>
+          <t>0,57; 5,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,33</t>
+          <t>0,53; 6,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,69</t>
+          <t>2,21; 8,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,12</t>
+          <t>1,57; 7,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,33</t>
+          <t>1,64; 9,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,11</t>
+          <t>2,38; 13,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,67</t>
+          <t>1,32; 5,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 5,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 6,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 8,12</t>
         </is>
       </c>
     </row>
@@ -852,12 +937,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,32 +952,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>0,0; 21,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 17,13</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,43</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 16,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 9,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,49</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 10,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 7,15</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 5,1</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,23</t>
+          <t>0,31; 3,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,54</t>
+          <t>0,55; 3,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,78</t>
+          <t>0,22; 2,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,32</t>
+          <t>0,71; 3,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,27</t>
+          <t>2,11; 5,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,83</t>
+          <t>1,16; 4,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,41</t>
+          <t>1,43; 4,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,91</t>
+          <t>4,91; 11,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,37</t>
+          <t>1,56; 3,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 3,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 3,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 6,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5418</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9616</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16828</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6272</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7237</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50504</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22246</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9980</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7237</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60120</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20683</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11496</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2464; 26254</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6861; 32882</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1706; 16214</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1896; 18102</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28764; 85068</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10583; 40525</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3856; 23876</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1759; 17428</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34194; 93348</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5198</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9347</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20274</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12661</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13757</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26994</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22312</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17860</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20827</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36340</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10379</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18874</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1828; 16935</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2175; 27735</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9401; 36646</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5299; 25577</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5471; 30050</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10225; 57509</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10382; 40338</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7923; 35086</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11472; 39855</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16780; 68342</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2710</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2710</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13639</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8612</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18750</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15335</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13346</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9394</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21166</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10924</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11617</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18963</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37102</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18934</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23010</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81376</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48026</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30550</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>30080</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100338</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2792; 26987</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4209; 26054</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1769; 18537</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7481; 38855</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21768; 59073</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9749; 34956</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11763; 39740</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54287; 121930</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30031; 74262</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17661; 49302</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17048; 48901</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>65609; 148385</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
